--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/wen_lin_sap_com/Documents/ocr/OCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048F5A1995EB65BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE6E0025-B01B-48BC-922D-BC3691D3A7B2}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC1048F5A1995EB65BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83A25C9C-5CC6-4CA4-9884-AA09E7728055}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>keyword</t>
   </si>
@@ -40,6 +40,33 @@
   </si>
   <si>
     <t xml:space="preserve">7 digits, below keyword </t>
+  </si>
+  <si>
+    <t>Beleg \n Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 digits / 8 digits, below keyword </t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>1402092272, 23584652</t>
+  </si>
+  <si>
+    <t>9 digits, below keyword</t>
+  </si>
+  <si>
+    <t>Re-Nr</t>
+  </si>
+  <si>
+    <t>Rechnungs- \n number</t>
+  </si>
+  <si>
+    <t>70395500375397</t>
+  </si>
+  <si>
+    <t>14 digits</t>
   </si>
 </sst>
 </file>
@@ -75,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,40 +385,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1">
+        <v>2144978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>520042851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>613104632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rules.xlsx
+++ b/rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/wen_lin_sap_com/Documents/ocr/OCR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I559057\GitHub\OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC1048F5A1995EB65BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83A25C9C-5CC6-4CA4-9884-AA09E7728055}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBBB6FF-3085-450D-80E9-88A8131C9466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>keyword</t>
   </si>
@@ -66,17 +66,38 @@
     <t>70395500375397</t>
   </si>
   <si>
-    <t>14 digits</t>
+    <t>Belegnr.</t>
+  </si>
+  <si>
+    <t>Rechnungs-Nr.</t>
+  </si>
+  <si>
+    <t>Beleg-Nr./ \n Rechnungsnr.</t>
+  </si>
+  <si>
+    <t>14 digits/10 digits, below keyword</t>
+  </si>
+  <si>
+    <t>8 digits, below keyword</t>
+  </si>
+  <si>
+    <t>10 digits, below keyword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,9 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6328125" customWidth="1"/>
     <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.08984375" style="1" customWidth="1"/>
   </cols>
@@ -458,13 +482,47 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22012207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000635090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1045073045</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC1048F5A1995EB65BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83A25C9C-5CC6-4CA4-9884-AA09E7728055}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I559057\GitHub\OCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBBB6FF-3085-450D-80E9-88A8131C9466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6225125-E969-422E-A739-CF069B2C11B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
